--- a/comapring_results/avg_travel_times_per_algorithm_lucky1 (1).xlsx
+++ b/comapring_results/avg_travel_times_per_algorithm_lucky1 (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/304b24243408c27c/Desktop/projects/Salesforce/SalesForceProject/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/304b24243408c27c/Desktop/projects/Salesforce/SalesForceProject/comapring_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="8_{EEC528F9-A1A7-4E01-8BF0-0536D62D146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28FF44C7-AA1E-4AFD-9E91-E483709C0334}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="8_{EEC528F9-A1A7-4E01-8BF0-0536D62D146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF24E98A-3DE1-4D58-B96E-0BC2DE33BE9C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7C03F1F-8F95-406A-9C6A-7965F216271C}"/>
   </bookViews>
@@ -72,16 +72,16 @@
     <t>travel time no algo with HB</t>
   </si>
   <si>
-    <t>travel time algo3 without HB</t>
-  </si>
-  <si>
-    <t>travel time algo3 with HB</t>
-  </si>
-  <si>
     <t>travel time algo2d without HB</t>
   </si>
   <si>
     <t>travel time algo2d with HB</t>
+  </si>
+  <si>
+    <t>travel time m-TSP without HB</t>
+  </si>
+  <si>
+    <t>travel time m-TSP with HB</t>
   </si>
 </sst>
 </file>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42C27F6-58EB-4411-8555-8CBD8FB636AA}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,16 +480,16 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -527,10 +527,10 @@
         <v>5497</v>
       </c>
       <c r="J2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K2">
-        <v>5513</v>
+        <v>5512</v>
       </c>
       <c r="L2">
         <v>590</v>
@@ -574,10 +574,10 @@
         <v>3.57179987</v>
       </c>
       <c r="J3">
-        <v>0.364666667</v>
+        <v>0.36533333299999998</v>
       </c>
       <c r="K3">
-        <v>3.6753333330000002</v>
+        <v>3.6746666669999999</v>
       </c>
       <c r="L3">
         <v>0.39333333300000001</v>
